--- a/Document/Fit&Gap/MobileAPI.xlsx
+++ b/Document/Fit&Gap/MobileAPI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9000" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="track_attendance" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="80">
   <si>
     <t>API</t>
   </si>
@@ -282,6 +282,12 @@
   <si>
     <t>CompleteTime</t>
   </si>
+  <si>
+    <t>Kinh độ Devices</t>
+  </si>
+  <si>
+    <t>Vĩ độ Devices</t>
+  </si>
 </sst>
 </file>
 
@@ -490,17 +496,52 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -514,38 +555,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -829,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -865,24 +874,24 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="B2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -895,26 +904,26 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="1"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -927,26 +936,26 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="1"/>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="8"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="23"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -987,13 +996,13 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" thickBot="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1104,7 +1113,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="1"/>
@@ -1156,7 +1165,7 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="1"/>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="1"/>
@@ -1208,13 +1217,13 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" thickBot="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1266,30 +1275,30 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="1"/>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14" t="s">
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14" t="s">
+      <c r="M16" s="16"/>
+      <c r="N16" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -1302,26 +1311,26 @@
     </row>
     <row r="17" spans="1:26">
       <c r="A17" s="1"/>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="15" t="s">
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M17" s="15"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -1336,24 +1345,24 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="1"/>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="15" t="s">
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M18" s="15"/>
+      <c r="M18" s="14"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -1370,26 +1379,26 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="1"/>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="15" t="s">
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M19" s="15"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -1404,20 +1413,20 @@
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="1"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -1432,20 +1441,20 @@
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="1"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -1460,7 +1469,7 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="1"/>
-      <c r="B22" s="18"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1470,8 +1479,8 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -1516,13 +1525,13 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" thickBot="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1574,12 +1583,12 @@
     </row>
     <row r="26" spans="1:26">
       <c r="A26" s="1"/>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1688,36 +1697,36 @@
     </row>
     <row r="30" spans="1:26">
       <c r="A30" s="1"/>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14" t="s">
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14" t="s">
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14" t="s">
+      <c r="M30" s="16"/>
+      <c r="N30" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14" t="s">
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
@@ -1726,18 +1735,18 @@
     </row>
     <row r="31" spans="1:26">
       <c r="A31" s="1"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -1754,18 +1763,18 @@
     </row>
     <row r="32" spans="1:26">
       <c r="A32" s="1"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -1810,13 +1819,13 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" thickBot="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="12"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -1868,92 +1877,92 @@
     </row>
     <row r="36" spans="1:26">
       <c r="A36" s="1"/>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21" t="s">
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21" t="s">
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21" t="s">
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="S36" s="21"/>
-      <c r="T36" s="21"/>
-      <c r="U36" s="21"/>
-      <c r="V36" s="21"/>
-      <c r="W36" s="21"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26">
       <c r="A37" s="1"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26">
       <c r="A38" s="1"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
@@ -2016,6 +2025,49 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:Q3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:Q4"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="R30:U30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="L31:M31"/>
     <mergeCell ref="B38:E38"/>
     <mergeCell ref="F38:K38"/>
     <mergeCell ref="L38:Q38"/>
@@ -2029,49 +2081,6 @@
     <mergeCell ref="F37:K37"/>
     <mergeCell ref="L37:Q37"/>
     <mergeCell ref="R37:W37"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="R30:U30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:Q3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:Q4"/>
-    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2117,24 +2126,24 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="B2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -2147,26 +2156,26 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="1"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -2179,26 +2188,26 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="1"/>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="8"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="23"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -2239,13 +2248,13 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" thickBot="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -2356,7 +2365,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F10" s="1"/>
@@ -2408,7 +2417,7 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="1"/>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="1"/>
@@ -2460,13 +2469,13 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" thickBot="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -2518,30 +2527,30 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="1"/>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14" t="s">
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14" t="s">
+      <c r="M16" s="16"/>
+      <c r="N16" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -2554,26 +2563,26 @@
     </row>
     <row r="17" spans="1:26">
       <c r="A17" s="1"/>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="15" t="s">
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M17" s="15"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -2588,18 +2597,18 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="1"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -2616,20 +2625,20 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="1"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -2644,20 +2653,20 @@
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="1"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -2672,20 +2681,20 @@
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="1"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -2700,7 +2709,7 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="1"/>
-      <c r="B22" s="18"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2710,8 +2719,8 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -2756,13 +2765,13 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" thickBot="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -2814,12 +2823,12 @@
     </row>
     <row r="26" spans="1:26">
       <c r="A26" s="1"/>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -2928,36 +2937,36 @@
     </row>
     <row r="30" spans="1:26">
       <c r="A30" s="1"/>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14" t="s">
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14" t="s">
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14" t="s">
+      <c r="M30" s="16"/>
+      <c r="N30" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14" t="s">
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
@@ -2966,18 +2975,18 @@
     </row>
     <row r="31" spans="1:26">
       <c r="A31" s="1"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -2994,18 +3003,18 @@
     </row>
     <row r="32" spans="1:26">
       <c r="A32" s="1"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -3050,13 +3059,13 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" thickBot="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="12"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -3108,92 +3117,92 @@
     </row>
     <row r="36" spans="1:26">
       <c r="A36" s="1"/>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21" t="s">
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21" t="s">
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21" t="s">
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="S36" s="21"/>
-      <c r="T36" s="21"/>
-      <c r="U36" s="21"/>
-      <c r="V36" s="21"/>
-      <c r="W36" s="21"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26">
       <c r="A37" s="1"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26">
       <c r="A38" s="1"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
@@ -3256,6 +3265,49 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:Q3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:Q4"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="R30:U30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="L31:M31"/>
     <mergeCell ref="B38:E38"/>
     <mergeCell ref="F38:K38"/>
     <mergeCell ref="L38:Q38"/>
@@ -3269,49 +3321,6 @@
     <mergeCell ref="F37:K37"/>
     <mergeCell ref="L37:Q37"/>
     <mergeCell ref="R37:W37"/>
-    <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="R30:U30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:Q3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:Q4"/>
-    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3357,24 +3366,24 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="B2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -3387,26 +3396,26 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="1"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -3419,26 +3428,26 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="1"/>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="8"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="23"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -3479,13 +3488,13 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" thickBot="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -3596,7 +3605,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F10" s="1"/>
@@ -3648,7 +3657,7 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="1"/>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="1"/>
@@ -3700,13 +3709,13 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" thickBot="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -3758,30 +3767,30 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="1"/>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14" t="s">
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14" t="s">
+      <c r="M16" s="16"/>
+      <c r="N16" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -3794,26 +3803,26 @@
     </row>
     <row r="17" spans="1:33">
       <c r="A17" s="1"/>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="15" t="s">
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M17" s="15"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -3828,18 +3837,18 @@
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="1"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -3856,20 +3865,20 @@
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="1"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -3884,20 +3893,20 @@
     </row>
     <row r="20" spans="1:33">
       <c r="A20" s="1"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -3912,20 +3921,20 @@
     </row>
     <row r="21" spans="1:33">
       <c r="A21" s="1"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -3940,7 +3949,7 @@
     </row>
     <row r="22" spans="1:33">
       <c r="A22" s="1"/>
-      <c r="B22" s="18"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -3950,8 +3959,8 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -3996,13 +4005,13 @@
     </row>
     <row r="24" spans="1:33" ht="15.75" thickBot="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -4104,12 +4113,12 @@
     </row>
     <row r="26" spans="1:33">
       <c r="A26" s="1"/>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -4159,12 +4168,12 @@
     </row>
     <row r="27" spans="1:33">
       <c r="A27" s="1"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="22" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="20"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -4214,12 +4223,12 @@
     </row>
     <row r="28" spans="1:33">
       <c r="A28" s="1"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="20"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -4269,12 +4278,12 @@
     </row>
     <row r="29" spans="1:33">
       <c r="A29" s="1"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="20"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -4324,12 +4333,12 @@
     </row>
     <row r="30" spans="1:33">
       <c r="A30" s="1"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="20"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -4379,12 +4388,12 @@
     </row>
     <row r="31" spans="1:33">
       <c r="A31" s="1"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="20"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -4434,12 +4443,12 @@
     </row>
     <row r="32" spans="1:33">
       <c r="A32" s="1"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
       <c r="D32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="20"/>
+      <c r="E32" s="7"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -4631,9 +4640,9 @@
       <c r="D37" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -4658,9 +4667,9 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -4683,36 +4692,36 @@
     </row>
     <row r="39" spans="1:33">
       <c r="A39" s="1"/>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14" t="s">
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14" t="s">
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14" t="s">
+      <c r="M39" s="16"/>
+      <c r="N39" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="14" t="s">
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="S39" s="14"/>
-      <c r="T39" s="14"/>
-      <c r="U39" s="14"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
@@ -4721,18 +4730,18 @@
     </row>
     <row r="40" spans="1:33">
       <c r="A40" s="1"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
@@ -4749,18 +4758,18 @@
     </row>
     <row r="41" spans="1:33">
       <c r="A41" s="1"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -4805,13 +4814,13 @@
     </row>
     <row r="43" spans="1:33" ht="15.75" thickBot="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="12"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -4863,92 +4872,92 @@
     </row>
     <row r="45" spans="1:33">
       <c r="A45" s="1"/>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21" t="s">
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21" t="s">
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="21"/>
-      <c r="R45" s="21" t="s">
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="S45" s="21"/>
-      <c r="T45" s="21"/>
-      <c r="U45" s="21"/>
-      <c r="V45" s="21"/>
-      <c r="W45" s="21"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13"/>
+      <c r="V45" s="13"/>
+      <c r="W45" s="13"/>
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:33">
       <c r="A46" s="1"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="4"/>
-      <c r="U46" s="4"/>
-      <c r="V46" s="4"/>
-      <c r="W46" s="4"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:33">
       <c r="A47" s="1"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4"/>
-      <c r="U47" s="4"/>
-      <c r="V47" s="4"/>
-      <c r="W47" s="4"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
@@ -5011,6 +5020,49 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:Q3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:Q4"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="F41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:Q39"/>
+    <mergeCell ref="R39:U39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:K40"/>
+    <mergeCell ref="L40:M40"/>
     <mergeCell ref="B47:E47"/>
     <mergeCell ref="F47:K47"/>
     <mergeCell ref="L47:Q47"/>
@@ -5024,49 +5076,6 @@
     <mergeCell ref="F46:K46"/>
     <mergeCell ref="L46:Q46"/>
     <mergeCell ref="R46:W46"/>
-    <mergeCell ref="N39:Q39"/>
-    <mergeCell ref="R39:U39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="F41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="F39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:Q3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:Q4"/>
-    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5074,10 +5083,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z54"/>
+  <dimension ref="A1:Z56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5112,24 +5121,24 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="B2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -5142,26 +5151,26 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="1"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -5174,26 +5183,26 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="1"/>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="8"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="23"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -5234,13 +5243,13 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" thickBot="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -5351,7 +5360,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F10" s="1"/>
@@ -5403,7 +5412,7 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="1"/>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="1"/>
@@ -5455,13 +5464,13 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" thickBot="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -5513,30 +5522,30 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="1"/>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14" t="s">
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14" t="s">
+      <c r="M16" s="16"/>
+      <c r="N16" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -5549,26 +5558,26 @@
     </row>
     <row r="17" spans="1:26">
       <c r="A17" s="1"/>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="15" t="s">
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M17" s="15"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -5583,24 +5592,24 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="1"/>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="15" t="s">
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M18" s="15"/>
+      <c r="M18" s="14"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -5617,26 +5626,26 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="1"/>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="15" t="s">
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M19" s="15"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -5651,26 +5660,24 @@
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="1"/>
-      <c r="B20" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="M20" s="15"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
+      <c r="B20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -5685,22 +5692,24 @@
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="1"/>
-      <c r="B21" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
+      <c r="B21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -5715,22 +5724,26 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="1"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
+      <c r="B22" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="M22" s="14"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -5745,22 +5758,22 @@
     </row>
     <row r="23" spans="1:26">
       <c r="A23" s="1"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
+      <c r="B23" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -5775,11 +5788,11 @@
     </row>
     <row r="24" spans="1:26">
       <c r="A24" s="1"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -5787,8 +5800,8 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -5805,10 +5818,10 @@
     </row>
     <row r="25" spans="1:26">
       <c r="A25" s="1"/>
-      <c r="B25" s="18"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -5817,8 +5830,8 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -5835,10 +5848,10 @@
     </row>
     <row r="26" spans="1:26">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -5847,8 +5860,8 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -5865,10 +5878,10 @@
     </row>
     <row r="27" spans="1:26">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -5877,8 +5890,8 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -5898,7 +5911,7 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -5925,11 +5938,11 @@
     </row>
     <row r="29" spans="1:26">
       <c r="A29" s="1"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -5937,8 +5950,8 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -5955,10 +5968,10 @@
     </row>
     <row r="30" spans="1:26">
       <c r="A30" s="1"/>
-      <c r="B30" s="18"/>
+      <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -5967,8 +5980,8 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -5985,11 +5998,11 @@
     </row>
     <row r="31" spans="1:26">
       <c r="A31" s="1"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -5997,8 +6010,8 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -6015,10 +6028,10 @@
     </row>
     <row r="32" spans="1:26">
       <c r="A32" s="1"/>
-      <c r="B32" s="18"/>
+      <c r="B32" s="6"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -6027,8 +6040,8 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -6045,10 +6058,10 @@
     </row>
     <row r="33" spans="1:26">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
+      <c r="B33" s="6"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -6057,8 +6070,8 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -6075,10 +6088,10 @@
     </row>
     <row r="34" spans="1:26">
       <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -6087,8 +6100,8 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -6108,7 +6121,7 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -6137,7 +6150,9 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -6161,11 +6176,13 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" thickBot="1">
+    <row r="37" spans="1:26">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -6189,15 +6206,13 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" thickBot="1">
+    <row r="38" spans="1:26">
       <c r="A38" s="1"/>
-      <c r="B38" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="11"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -6219,7 +6234,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" ht="15.75" thickBot="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -6247,15 +6262,15 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:26" ht="15.75" thickBot="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="1"/>
+      <c r="B40" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="12"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -6307,10 +6322,12 @@
     </row>
     <row r="42" spans="1:26">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="B42" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -6363,36 +6380,26 @@
     </row>
     <row r="44" spans="1:26">
       <c r="A44" s="1"/>
-      <c r="B44" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="S44" s="14"/>
-      <c r="T44" s="14"/>
-      <c r="U44" s="14"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
@@ -6401,18 +6408,18 @@
     </row>
     <row r="45" spans="1:26">
       <c r="A45" s="1"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
@@ -6429,46 +6436,56 @@
     </row>
     <row r="46" spans="1:26">
       <c r="A46" s="1"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="16"/>
+      <c r="B46" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16" t="s">
+        <v>2</v>
+      </c>
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
       <c r="I46" s="16"/>
       <c r="J46" s="16"/>
       <c r="K46" s="16"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
+      <c r="L46" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="S46" s="16"/>
+      <c r="T46" s="16"/>
+      <c r="U46" s="16"/>
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" ht="15.75" thickBot="1">
+    <row r="47" spans="1:26">
       <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
@@ -6483,22 +6500,20 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" ht="15.75" thickBot="1">
+    <row r="48" spans="1:26">
       <c r="A48" s="1"/>
-      <c r="B48" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
@@ -6513,7 +6528,7 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:26" ht="15.75" thickBot="1">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -6541,203 +6556,214 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:26" ht="15.75" thickBot="1">
       <c r="A50" s="1"/>
-      <c r="B50" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="M50" s="21"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="S50" s="21"/>
-      <c r="T50" s="21"/>
-      <c r="U50" s="21"/>
-      <c r="V50" s="21"/>
-      <c r="W50" s="21"/>
+      <c r="B50" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
     <row r="51" spans="1:26">
       <c r="A51" s="1"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="4"/>
-      <c r="U51" s="4"/>
-      <c r="V51" s="4"/>
-      <c r="W51" s="4"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="1:26">
       <c r="A52" s="1"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="4"/>
-      <c r="U52" s="4"/>
-      <c r="V52" s="4"/>
-      <c r="W52" s="4"/>
+      <c r="B52" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
+      <c r="R52" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="S52" s="13"/>
+      <c r="T52" s="13"/>
+      <c r="U52" s="13"/>
+      <c r="V52" s="13"/>
+      <c r="W52" s="13"/>
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
     <row r="53" spans="1:26">
       <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
-      <c r="S53" s="1"/>
-      <c r="T53" s="1"/>
-      <c r="U53" s="1"/>
-      <c r="V53" s="1"/>
-      <c r="W53" s="1"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="9"/>
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
     <row r="54" spans="1:26">
       <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="V54" s="1"/>
-      <c r="W54" s="1"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="9"/>
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
+    <row r="55" spans="1:26">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+    </row>
+    <row r="56" spans="1:26">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="F52:K52"/>
-    <mergeCell ref="L52:Q52"/>
-    <mergeCell ref="R52:W52"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="F50:K50"/>
-    <mergeCell ref="L50:Q50"/>
-    <mergeCell ref="R50:W50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="F51:K51"/>
-    <mergeCell ref="L51:Q51"/>
-    <mergeCell ref="R51:W51"/>
-    <mergeCell ref="N44:Q44"/>
-    <mergeCell ref="R44:U44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="F45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="F46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="F44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:Q16"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="F17:K17"/>
     <mergeCell ref="L17:M17"/>
@@ -6748,6 +6774,53 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:Q4"/>
     <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="F46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="F47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="F48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="F54:K54"/>
+    <mergeCell ref="L54:Q54"/>
+    <mergeCell ref="R54:W54"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="F52:K52"/>
+    <mergeCell ref="L52:Q52"/>
+    <mergeCell ref="R52:W52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="F53:K53"/>
+    <mergeCell ref="L53:Q53"/>
+    <mergeCell ref="R53:W53"/>
+    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="R46:U46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6757,7 +6830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
@@ -6793,24 +6866,24 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="B2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -6823,26 +6896,26 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="1"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -6855,26 +6928,26 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="1"/>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="8"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="23"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -6915,13 +6988,13 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" thickBot="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -7032,7 +7105,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F10" s="1"/>
@@ -7084,7 +7157,7 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="1"/>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="1"/>
@@ -7136,13 +7209,13 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" thickBot="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -7194,30 +7267,30 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="1"/>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14" t="s">
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14" t="s">
+      <c r="M16" s="16"/>
+      <c r="N16" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -7230,26 +7303,26 @@
     </row>
     <row r="17" spans="1:33">
       <c r="A17" s="1"/>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="15" t="s">
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M17" s="15"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -7264,18 +7337,18 @@
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="1"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -7292,20 +7365,20 @@
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="1"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -7320,20 +7393,20 @@
     </row>
     <row r="20" spans="1:33">
       <c r="A20" s="1"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -7348,20 +7421,20 @@
     </row>
     <row r="21" spans="1:33">
       <c r="A21" s="1"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -7376,7 +7449,7 @@
     </row>
     <row r="22" spans="1:33">
       <c r="A22" s="1"/>
-      <c r="B22" s="18"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -7386,8 +7459,8 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -7432,13 +7505,13 @@
     </row>
     <row r="24" spans="1:33" ht="15.75" thickBot="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -7540,12 +7613,12 @@
     </row>
     <row r="26" spans="1:33">
       <c r="A26" s="1"/>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -7595,12 +7668,12 @@
     </row>
     <row r="27" spans="1:33">
       <c r="A27" s="1"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="22" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="20"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -7650,12 +7723,12 @@
     </row>
     <row r="28" spans="1:33">
       <c r="A28" s="1"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="20"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -7705,12 +7778,12 @@
     </row>
     <row r="29" spans="1:33">
       <c r="A29" s="1"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="20"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -7760,12 +7833,12 @@
     </row>
     <row r="30" spans="1:33">
       <c r="A30" s="1"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="20"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -7815,12 +7888,12 @@
     </row>
     <row r="31" spans="1:33">
       <c r="A31" s="1"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="20"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -7870,12 +7943,12 @@
     </row>
     <row r="32" spans="1:33">
       <c r="A32" s="1"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
       <c r="D32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="20"/>
+      <c r="E32" s="7"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -8067,9 +8140,9 @@
       <c r="D37" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -8094,12 +8167,12 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -8124,9 +8197,9 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -8149,36 +8222,36 @@
     </row>
     <row r="40" spans="1:33">
       <c r="A40" s="1"/>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14" t="s">
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14" t="s">
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14" t="s">
+      <c r="M40" s="16"/>
+      <c r="N40" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="14" t="s">
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="S40" s="14"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="14"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
@@ -8187,18 +8260,18 @@
     </row>
     <row r="41" spans="1:33">
       <c r="A41" s="1"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -8215,18 +8288,18 @@
     </row>
     <row r="42" spans="1:33">
       <c r="A42" s="1"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -8271,13 +8344,13 @@
     </row>
     <row r="44" spans="1:33" ht="15.75" thickBot="1">
       <c r="A44" s="1"/>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="12"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -8329,92 +8402,92 @@
     </row>
     <row r="46" spans="1:33">
       <c r="A46" s="1"/>
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21" t="s">
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21" t="s">
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="M46" s="21"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="21"/>
-      <c r="R46" s="21" t="s">
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="S46" s="21"/>
-      <c r="T46" s="21"/>
-      <c r="U46" s="21"/>
-      <c r="V46" s="21"/>
-      <c r="W46" s="21"/>
+      <c r="S46" s="13"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="13"/>
+      <c r="W46" s="13"/>
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:33">
       <c r="A47" s="1"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4"/>
-      <c r="U47" s="4"/>
-      <c r="V47" s="4"/>
-      <c r="W47" s="4"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:33">
       <c r="A48" s="1"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="4"/>
-      <c r="U48" s="4"/>
-      <c r="V48" s="4"/>
-      <c r="W48" s="4"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
@@ -8477,6 +8550,49 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:Q3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:Q4"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="F42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:Q40"/>
+    <mergeCell ref="R40:U40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="F41:K41"/>
+    <mergeCell ref="L41:M41"/>
     <mergeCell ref="B48:E48"/>
     <mergeCell ref="F48:K48"/>
     <mergeCell ref="L48:Q48"/>
@@ -8490,49 +8606,6 @@
     <mergeCell ref="F47:K47"/>
     <mergeCell ref="L47:Q47"/>
     <mergeCell ref="R47:W47"/>
-    <mergeCell ref="N40:Q40"/>
-    <mergeCell ref="R40:U40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="F41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="F42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:Q3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:Q4"/>
-    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Document/Fit&Gap/MobileAPI.xlsx
+++ b/Document/Fit&Gap/MobileAPI.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEVELOPER\MyGIT\DolphinSolutions\My Projects\EmployeeTracking\Document\Fit&amp;Gap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGit\EmployeeTracking\Document\Fit&amp;Gap\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9000" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9000"/>
   </bookViews>
   <sheets>
-    <sheet name="track_attendance" sheetId="1" r:id="rId1"/>
-    <sheet name="get_typeposm" sheetId="3" r:id="rId2"/>
-    <sheet name="get_allstore" sheetId="4" r:id="rId3"/>
-    <sheet name="track_reportsetposm" sheetId="2" r:id="rId4"/>
-    <sheet name="track_getStoreComplete" sheetId="5" r:id="rId5"/>
+    <sheet name="sys_login" sheetId="6" r:id="rId1"/>
+    <sheet name="track_attendance" sheetId="1" r:id="rId2"/>
+    <sheet name="get_storebycode" sheetId="4" r:id="rId3"/>
+    <sheet name="get_typeposm" sheetId="3" r:id="rId4"/>
+    <sheet name="track_reportsetposm" sheetId="2" r:id="rId5"/>
+    <sheet name="track_getStoreComplete" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="85">
   <si>
     <t>API</t>
   </si>
@@ -163,12 +164,6 @@
     <t>Code</t>
   </si>
   <si>
-    <t>utf8</t>
-  </si>
-  <si>
-    <t>utf8_general_ci</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -209,15 +204,6 @@
   </si>
   <si>
     <t>StoreId</t>
-  </si>
-  <si>
-    <t>Id Cửa hàng</t>
-  </si>
-  <si>
-    <t>PosmType</t>
-  </si>
-  <si>
-    <t>Loại POSM</t>
   </si>
   <si>
     <t>StoreImage[]</t>
@@ -283,10 +269,40 @@
     <t>CompleteTime</t>
   </si>
   <si>
-    <t>Kinh độ Devices</t>
+    <t>sys_login</t>
   </si>
   <si>
-    <t>Vĩ độ Devices</t>
+    <t>Đăng nhập hệ thống</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /sys_login</t>
+  </si>
+  <si>
+    <t>http://&lt;domain&gt;/ssc/api/</t>
+  </si>
+  <si>
+    <t>IndentityCard</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Mật khẩu đăng nhập</t>
+  </si>
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>StoreCode</t>
+  </si>
+  <si>
+    <t>Mã cửa hàng</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Data</t>
   </si>
 </sst>
 </file>
@@ -496,7 +512,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -510,20 +526,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -531,17 +535,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -554,6 +555,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -836,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z40"/>
+  <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -874,24 +893,24 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="1"/>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -904,26 +923,26 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="1"/>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -936,26 +955,26 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="1"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="23"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="18"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -996,13 +1015,13 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" thickBot="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1083,7 +1102,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1114,7 +1133,7 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1217,13 +1236,13 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" thickBot="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1275,30 +1294,30 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="1"/>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16" t="s">
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16" t="s">
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16" t="s">
+      <c r="M16" s="22"/>
+      <c r="N16" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -1311,26 +1330,26 @@
     </row>
     <row r="17" spans="1:26">
       <c r="A17" s="1"/>
-      <c r="B17" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15" t="s">
+      <c r="B17" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="14" t="s">
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M17" s="14"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -1345,24 +1364,24 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="1"/>
-      <c r="B18" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="14" t="s">
+      <c r="B18" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M18" s="14"/>
+      <c r="M18" s="10"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -1379,26 +1398,20 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="1"/>
-      <c r="B19" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M19" s="14"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -1413,20 +1426,20 @@
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="1"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -1441,18 +1454,18 @@
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="1"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="1"/>
@@ -1479,8 +1492,8 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -1525,13 +1538,13 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" thickBot="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1583,12 +1596,12 @@
     </row>
     <row r="26" spans="1:26">
       <c r="A26" s="1"/>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1613,7 +1626,9 @@
     </row>
     <row r="27" spans="1:26">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="B27" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1641,10 +1656,12 @@
     </row>
     <row r="28" spans="1:26">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="B28" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1669,10 +1686,10 @@
     </row>
     <row r="29" spans="1:26">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1697,36 +1714,26 @@
     </row>
     <row r="30" spans="1:26">
       <c r="A30" s="1"/>
-      <c r="B30" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="16"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
@@ -1735,18 +1742,18 @@
     </row>
     <row r="31" spans="1:26">
       <c r="A31" s="1"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -1763,18 +1770,18 @@
     </row>
     <row r="32" spans="1:26">
       <c r="A32" s="1"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -1789,50 +1796,58 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" thickBot="1">
+    <row r="33" spans="1:26">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
+      <c r="B33" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="15.75" thickBot="1">
+    <row r="34" spans="1:26">
       <c r="A34" s="1"/>
-      <c r="B34" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -1849,18 +1864,18 @@
     </row>
     <row r="35" spans="1:26">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -1875,156 +1890,289 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" ht="15.75" thickBot="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="13"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" ht="15.75" thickBot="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
+      <c r="B37" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26">
       <c r="A38" s="1"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26">
       <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
+      <c r="B39" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="S39" s="24"/>
+      <c r="T39" s="24"/>
+      <c r="U39" s="24"/>
+      <c r="V39" s="24"/>
+      <c r="W39" s="24"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
+    <row r="41" spans="1:26">
+      <c r="A41" s="1"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="14"/>
+      <c r="W41" s="14"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+    </row>
+    <row r="42" spans="1:26">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+    </row>
+    <row r="43" spans="1:26">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="57">
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="F41:K41"/>
+    <mergeCell ref="L41:Q41"/>
+    <mergeCell ref="R41:W41"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:K39"/>
+    <mergeCell ref="L39:Q39"/>
+    <mergeCell ref="R39:W39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:K40"/>
+    <mergeCell ref="L40:Q40"/>
+    <mergeCell ref="R40:W40"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="R33:U33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:Q16"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="F17:K17"/>
     <mergeCell ref="L17:M17"/>
@@ -2035,54 +2183,9 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:Q4"/>
     <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="R30:U30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F38:K38"/>
-    <mergeCell ref="L38:Q38"/>
-    <mergeCell ref="R38:W38"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:K36"/>
-    <mergeCell ref="L36:Q36"/>
-    <mergeCell ref="R36:W36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:K37"/>
-    <mergeCell ref="L37:Q37"/>
-    <mergeCell ref="R37:W37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2090,8 +2193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H22" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2126,24 +2229,24 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="1"/>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -2156,26 +2259,26 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="1"/>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -2188,26 +2291,26 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="1"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="23"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="18"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -2248,13 +2351,13 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" thickBot="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -2335,7 +2438,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -2366,7 +2469,7 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -2469,13 +2572,13 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" thickBot="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -2527,30 +2630,30 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="1"/>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16" t="s">
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16" t="s">
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16" t="s">
+      <c r="M16" s="22"/>
+      <c r="N16" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -2563,26 +2666,26 @@
     </row>
     <row r="17" spans="1:26">
       <c r="A17" s="1"/>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="14" t="s">
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M17" s="14"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -2597,18 +2700,24 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="1"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
+      <c r="B18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="10"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -2625,20 +2734,26 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="1"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
+      <c r="B19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -2653,20 +2768,20 @@
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="1"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -2681,18 +2796,18 @@
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="1"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="1"/>
@@ -2719,8 +2834,8 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -2765,13 +2880,13 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" thickBot="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -2823,12 +2938,12 @@
     </row>
     <row r="26" spans="1:26">
       <c r="A26" s="1"/>
-      <c r="B26" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
+      <c r="B26" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -2937,36 +3052,36 @@
     </row>
     <row r="30" spans="1:26">
       <c r="A30" s="1"/>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16" t="s">
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16" t="s">
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16" t="s">
+      <c r="M30" s="22"/>
+      <c r="N30" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16" t="s">
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="16"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
@@ -2975,18 +3090,18 @@
     </row>
     <row r="31" spans="1:26">
       <c r="A31" s="1"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -3003,18 +3118,18 @@
     </row>
     <row r="32" spans="1:26">
       <c r="A32" s="1"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -3059,13 +3174,13 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" thickBot="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="12"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="21"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -3117,92 +3232,92 @@
     </row>
     <row r="36" spans="1:26">
       <c r="A36" s="1"/>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13" t="s">
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13" t="s">
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13" t="s">
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="13"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="24"/>
+      <c r="U36" s="24"/>
+      <c r="V36" s="24"/>
+      <c r="W36" s="24"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26">
       <c r="A37" s="1"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26">
       <c r="A38" s="1"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
@@ -3265,6 +3380,47 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:K38"/>
+    <mergeCell ref="L38:Q38"/>
+    <mergeCell ref="R38:W38"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:K36"/>
+    <mergeCell ref="L36:Q36"/>
+    <mergeCell ref="R36:W36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:K37"/>
+    <mergeCell ref="L37:Q37"/>
+    <mergeCell ref="R37:W37"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="R30:U30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="L19:M19"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="F17:K17"/>
     <mergeCell ref="L17:M17"/>
@@ -3280,47 +3436,6 @@
     <mergeCell ref="F16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="R30:U30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F38:K38"/>
-    <mergeCell ref="L38:Q38"/>
-    <mergeCell ref="R38:W38"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:K36"/>
-    <mergeCell ref="L36:Q36"/>
-    <mergeCell ref="R36:W36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:K37"/>
-    <mergeCell ref="L37:Q37"/>
-    <mergeCell ref="R37:W37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3328,10 +3443,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG49"/>
+  <dimension ref="A1:Z49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3366,24 +3481,24 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="1"/>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -3396,26 +3511,26 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="1"/>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -3428,26 +3543,26 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="1"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="23"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="18"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -3488,13 +3603,13 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" thickBot="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -3575,7 +3690,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -3606,7 +3721,7 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -3709,13 +3824,13 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" thickBot="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -3767,30 +3882,30 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="1"/>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16" t="s">
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16" t="s">
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16" t="s">
+      <c r="M16" s="22"/>
+      <c r="N16" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -3801,28 +3916,28 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:26">
       <c r="A17" s="1"/>
-      <c r="B17" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="14" t="s">
+      <c r="B17" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M17" s="14"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -3835,20 +3950,20 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:26">
       <c r="A18" s="1"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -3863,22 +3978,22 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:26">
       <c r="A19" s="1"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -3891,22 +4006,22 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:26">
       <c r="A20" s="1"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -3919,20 +4034,20 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:26">
       <c r="A21" s="1"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="1"/>
@@ -3947,7 +4062,7 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:26">
       <c r="A22" s="1"/>
       <c r="B22" s="6"/>
       <c r="C22" s="1"/>
@@ -3959,8 +4074,8 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -3975,7 +4090,7 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:33" ht="15.75" thickBot="1">
+    <row r="23" spans="1:26" ht="15.75" thickBot="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -4003,15 +4118,15 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:33" ht="15.75" thickBot="1">
+    <row r="24" spans="1:26" ht="15.75" thickBot="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -4030,37 +4145,14 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
-      <c r="Y24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33">
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -4083,42 +4175,17 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
-      <c r="Y25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AF25">
-        <v>0</v>
-      </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33">
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" s="1"/>
-      <c r="B26" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
+      <c r="B26" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -4138,40 +4205,15 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
-      <c r="Y26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:33">
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" s="1"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="1"/>
@@ -4193,35 +4235,10 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
-      <c r="Y27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-      <c r="AF27">
-        <v>0</v>
-      </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33">
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" s="1"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -4248,40 +4265,15 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
-      <c r="Y28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <v>0</v>
-      </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
-      <c r="AF28">
-        <v>0</v>
-      </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:33">
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" s="1"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="1"/>
@@ -4303,40 +4295,15 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
-      <c r="Y29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-      <c r="AC29">
-        <v>0</v>
-      </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
-      <c r="AE29">
-        <v>0</v>
-      </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33">
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" s="1"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="1"/>
@@ -4358,40 +4325,15 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
-      <c r="Y30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA30">
-        <v>0</v>
-      </c>
-      <c r="AB30">
-        <v>0</v>
-      </c>
-      <c r="AC30">
-        <v>0</v>
-      </c>
-      <c r="AD30">
-        <v>0</v>
-      </c>
-      <c r="AE30">
-        <v>0</v>
-      </c>
-      <c r="AF30">
-        <v>0</v>
-      </c>
-      <c r="AG30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:33">
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31" s="1"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="1"/>
@@ -4413,40 +4355,15 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
-      <c r="Y31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA31">
-        <v>0</v>
-      </c>
-      <c r="AB31">
-        <v>0</v>
-      </c>
-      <c r="AC31">
-        <v>0</v>
-      </c>
-      <c r="AD31">
-        <v>0</v>
-      </c>
-      <c r="AE31">
-        <v>0</v>
-      </c>
-      <c r="AF31">
-        <v>0</v>
-      </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33">
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+    </row>
+    <row r="32" spans="1:26">
       <c r="A32" s="1"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="1"/>
@@ -4470,34 +4387,13 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
-      <c r="AA32">
-        <v>0</v>
-      </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
-      <c r="AD32">
-        <v>0</v>
-      </c>
-      <c r="AE32">
-        <v>0</v>
-      </c>
-      <c r="AF32">
-        <v>0</v>
-      </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:33">
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -4521,34 +4417,13 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
-      <c r="AA33">
-        <v>0</v>
-      </c>
-      <c r="AB33">
-        <v>0</v>
-      </c>
-      <c r="AC33">
-        <v>0</v>
-      </c>
-      <c r="AD33">
-        <v>0</v>
-      </c>
-      <c r="AE33">
-        <v>0</v>
-      </c>
-      <c r="AF33">
-        <v>0</v>
-      </c>
-      <c r="AG33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33">
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -4573,12 +4448,12 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:33">
+    <row r="35" spans="1:26">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -4603,12 +4478,12 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:33">
+    <row r="36" spans="1:26">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -4633,12 +4508,12 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:33">
+    <row r="37" spans="1:26">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -4663,7 +4538,7 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:33">
+    <row r="38" spans="1:26">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -4690,58 +4565,58 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:33">
+    <row r="39" spans="1:26">
       <c r="A39" s="1"/>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16" t="s">
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16" t="s">
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16" t="s">
+      <c r="M39" s="22"/>
+      <c r="N39" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16" t="s">
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="S39" s="16"/>
-      <c r="T39" s="16"/>
-      <c r="U39" s="16"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:33">
+    <row r="40" spans="1:26">
       <c r="A40" s="1"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
@@ -4756,20 +4631,20 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:33">
+    <row r="41" spans="1:26">
       <c r="A41" s="1"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -4784,7 +4659,7 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:33" ht="15.75" thickBot="1">
+    <row r="42" spans="1:26" ht="15.75" thickBot="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -4812,15 +4687,15 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:33" ht="15.75" thickBot="1">
+    <row r="43" spans="1:26" ht="15.75" thickBot="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="12"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="21"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -4842,7 +4717,7 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:33">
+    <row r="44" spans="1:26">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -4870,99 +4745,99 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:33">
+    <row r="45" spans="1:26">
       <c r="A45" s="1"/>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13" t="s">
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13" t="s">
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="13" t="s">
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="S45" s="13"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="13"/>
-      <c r="V45" s="13"/>
-      <c r="W45" s="13"/>
+      <c r="S45" s="24"/>
+      <c r="T45" s="24"/>
+      <c r="U45" s="24"/>
+      <c r="V45" s="24"/>
+      <c r="W45" s="24"/>
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:33">
+    <row r="46" spans="1:26">
       <c r="A46" s="1"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="9"/>
-      <c r="U46" s="9"/>
-      <c r="V46" s="9"/>
-      <c r="W46" s="9"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="14"/>
+      <c r="W46" s="14"/>
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:33">
+    <row r="47" spans="1:26">
       <c r="A47" s="1"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="9"/>
-      <c r="U47" s="9"/>
-      <c r="V47" s="9"/>
-      <c r="W47" s="9"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="14"/>
+      <c r="V47" s="14"/>
+      <c r="W47" s="14"/>
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:33">
+    <row r="48" spans="1:26">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -5020,6 +4895,47 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="F47:K47"/>
+    <mergeCell ref="L47:Q47"/>
+    <mergeCell ref="R47:W47"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="F45:K45"/>
+    <mergeCell ref="L45:Q45"/>
+    <mergeCell ref="R45:W45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="F46:K46"/>
+    <mergeCell ref="L46:Q46"/>
+    <mergeCell ref="R46:W46"/>
+    <mergeCell ref="N39:Q39"/>
+    <mergeCell ref="R39:U39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="F41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="L19:M19"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="F17:K17"/>
     <mergeCell ref="L17:M17"/>
@@ -5035,47 +4951,6 @@
     <mergeCell ref="F16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="F41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="F39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="N39:Q39"/>
-    <mergeCell ref="R39:U39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="F47:K47"/>
-    <mergeCell ref="L47:Q47"/>
-    <mergeCell ref="R47:W47"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="F45:K45"/>
-    <mergeCell ref="L45:Q45"/>
-    <mergeCell ref="R45:W45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="F46:K46"/>
-    <mergeCell ref="L46:Q46"/>
-    <mergeCell ref="R46:W46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5083,10 +4958,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z56"/>
+  <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23:K23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5121,24 +4996,24 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="1"/>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -5151,26 +5026,26 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="1"/>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -5183,26 +5058,26 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="1"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="23"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="18"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -5243,13 +5118,13 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" thickBot="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -5330,7 +5205,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -5361,7 +5236,7 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -5464,13 +5339,13 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" thickBot="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -5522,30 +5397,30 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="1"/>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16" t="s">
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16" t="s">
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16" t="s">
+      <c r="M16" s="22"/>
+      <c r="N16" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -5558,26 +5433,26 @@
     </row>
     <row r="17" spans="1:26">
       <c r="A17" s="1"/>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="14" t="s">
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M17" s="14"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -5592,24 +5467,18 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="1"/>
-      <c r="B18" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="M18" s="14"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -5626,26 +5495,20 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="1"/>
-      <c r="B19" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="M19" s="14"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -5660,24 +5523,20 @@
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="1"/>
-      <c r="B20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -5692,24 +5551,20 @@
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="1"/>
-      <c r="B21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -5724,26 +5579,20 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="1"/>
-      <c r="B22" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="M22" s="14"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -5756,24 +5605,22 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" ht="15.75" thickBot="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -5786,22 +5633,22 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" ht="15.75" thickBot="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="B24" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -5818,11 +5665,9 @@
     </row>
     <row r="25" spans="1:26">
       <c r="A25" s="1"/>
-      <c r="B25" s="6"/>
+      <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -5830,8 +5675,8 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -5848,20 +5693,20 @@
     </row>
     <row r="26" spans="1:26">
       <c r="A26" s="1"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="1"/>
+      <c r="B26" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -5878,11 +5723,9 @@
     </row>
     <row r="27" spans="1:26">
       <c r="A27" s="1"/>
-      <c r="B27" s="6"/>
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -5890,8 +5733,8 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -5910,9 +5753,7 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -5940,9 +5781,7 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -5968,28 +5807,36 @@
     </row>
     <row r="30" spans="1:26">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
+      <c r="B30" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
@@ -5998,20 +5845,18 @@
     </row>
     <row r="31" spans="1:26">
       <c r="A31" s="1"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -6028,20 +5873,18 @@
     </row>
     <row r="32" spans="1:26">
       <c r="A32" s="1"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -6056,13 +5899,11 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:26" ht="15.75" thickBot="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="6"/>
+      <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -6070,8 +5911,8 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -6086,22 +5927,22 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" ht="15.75" thickBot="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="B34" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="21"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -6120,9 +5961,7 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -6148,93 +5987,97 @@
     </row>
     <row r="36" spans="1:26">
       <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
+      <c r="B36" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="S36" s="24"/>
+      <c r="T36" s="24"/>
+      <c r="U36" s="24"/>
+      <c r="V36" s="24"/>
+      <c r="W36" s="24"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26">
       <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26">
       <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" thickBot="1">
+    <row r="39" spans="1:26">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -6262,15 +6105,13 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" thickBot="1">
+    <row r="40" spans="1:26">
       <c r="A40" s="1"/>
-      <c r="B40" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="12"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -6292,478 +6133,49 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-      <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
-      <c r="Z41" s="1"/>
-    </row>
-    <row r="42" spans="1:26">
-      <c r="A42" s="1"/>
-      <c r="B42" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-      <c r="W42" s="1"/>
-      <c r="X42" s="1"/>
-      <c r="Y42" s="1"/>
-      <c r="Z42" s="1"/>
-    </row>
-    <row r="43" spans="1:26">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
-      <c r="Y43" s="1"/>
-      <c r="Z43" s="1"/>
-    </row>
-    <row r="44" spans="1:26">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
-      <c r="X44" s="1"/>
-      <c r="Y44" s="1"/>
-      <c r="Z44" s="1"/>
-    </row>
-    <row r="45" spans="1:26">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
-      <c r="W45" s="1"/>
-      <c r="X45" s="1"/>
-      <c r="Y45" s="1"/>
-      <c r="Z45" s="1"/>
-    </row>
-    <row r="46" spans="1:26">
-      <c r="A46" s="1"/>
-      <c r="B46" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="S46" s="16"/>
-      <c r="T46" s="16"/>
-      <c r="U46" s="16"/>
-      <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
-      <c r="X46" s="1"/>
-      <c r="Y46" s="1"/>
-      <c r="Z46" s="1"/>
-    </row>
-    <row r="47" spans="1:26">
-      <c r="A47" s="1"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
-      <c r="X47" s="1"/>
-      <c r="Y47" s="1"/>
-      <c r="Z47" s="1"/>
-    </row>
-    <row r="48" spans="1:26">
-      <c r="A48" s="1"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
-      <c r="W48" s="1"/>
-      <c r="X48" s="1"/>
-      <c r="Y48" s="1"/>
-      <c r="Z48" s="1"/>
-    </row>
-    <row r="49" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
-      <c r="X49" s="1"/>
-      <c r="Y49" s="1"/>
-      <c r="Z49" s="1"/>
-    </row>
-    <row r="50" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A50" s="1"/>
-      <c r="B50" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
-      <c r="U50" s="1"/>
-      <c r="V50" s="1"/>
-      <c r="W50" s="1"/>
-      <c r="X50" s="1"/>
-      <c r="Y50" s="1"/>
-      <c r="Z50" s="1"/>
-    </row>
-    <row r="51" spans="1:26">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="V51" s="1"/>
-      <c r="W51" s="1"/>
-      <c r="X51" s="1"/>
-      <c r="Y51" s="1"/>
-      <c r="Z51" s="1"/>
-    </row>
-    <row r="52" spans="1:26">
-      <c r="A52" s="1"/>
-      <c r="B52" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="13"/>
-      <c r="Q52" s="13"/>
-      <c r="R52" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="S52" s="13"/>
-      <c r="T52" s="13"/>
-      <c r="U52" s="13"/>
-      <c r="V52" s="13"/>
-      <c r="W52" s="13"/>
-      <c r="X52" s="1"/>
-      <c r="Y52" s="1"/>
-      <c r="Z52" s="1"/>
-    </row>
-    <row r="53" spans="1:26">
-      <c r="A53" s="1"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="9"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="9"/>
-      <c r="R53" s="9"/>
-      <c r="S53" s="9"/>
-      <c r="T53" s="9"/>
-      <c r="U53" s="9"/>
-      <c r="V53" s="9"/>
-      <c r="W53" s="9"/>
-      <c r="X53" s="1"/>
-      <c r="Y53" s="1"/>
-      <c r="Z53" s="1"/>
-    </row>
-    <row r="54" spans="1:26">
-      <c r="A54" s="1"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
-      <c r="O54" s="9"/>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="9"/>
-      <c r="R54" s="9"/>
-      <c r="S54" s="9"/>
-      <c r="T54" s="9"/>
-      <c r="U54" s="9"/>
-      <c r="V54" s="9"/>
-      <c r="W54" s="9"/>
-      <c r="X54" s="1"/>
-      <c r="Y54" s="1"/>
-      <c r="Z54" s="1"/>
-    </row>
-    <row r="55" spans="1:26">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
-      <c r="S55" s="1"/>
-      <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
-      <c r="V55" s="1"/>
-      <c r="W55" s="1"/>
-      <c r="X55" s="1"/>
-      <c r="Y55" s="1"/>
-      <c r="Z55" s="1"/>
-    </row>
-    <row r="56" spans="1:26">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="1"/>
-      <c r="U56" s="1"/>
-      <c r="V56" s="1"/>
-      <c r="W56" s="1"/>
-      <c r="X56" s="1"/>
-      <c r="Y56" s="1"/>
-      <c r="Z56" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="56">
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:K38"/>
+    <mergeCell ref="L38:Q38"/>
+    <mergeCell ref="R38:W38"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:K36"/>
+    <mergeCell ref="L36:Q36"/>
+    <mergeCell ref="R36:W36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:K37"/>
+    <mergeCell ref="L37:Q37"/>
+    <mergeCell ref="R37:W37"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="R30:U30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="L19:M19"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="F17:K17"/>
     <mergeCell ref="L17:M17"/>
@@ -6779,48 +6191,6 @@
     <mergeCell ref="F16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="F46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="F47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="F48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="F54:K54"/>
-    <mergeCell ref="L54:Q54"/>
-    <mergeCell ref="R54:W54"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="F52:K52"/>
-    <mergeCell ref="L52:Q52"/>
-    <mergeCell ref="R52:W52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="F53:K53"/>
-    <mergeCell ref="L53:Q53"/>
-    <mergeCell ref="R53:W53"/>
-    <mergeCell ref="N46:Q46"/>
-    <mergeCell ref="R46:U46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6828,10 +6198,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG50"/>
+  <dimension ref="A1:Z66"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6866,24 +6236,24 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="1"/>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -6896,26 +6266,26 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="1"/>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -6928,26 +6298,26 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="1"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="23"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="18"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -6988,13 +6358,13 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" thickBot="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -7075,7 +6445,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -7106,7 +6476,7 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="2" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -7209,13 +6579,13 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" thickBot="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -7267,30 +6637,30 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="1"/>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16" t="s">
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16" t="s">
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16" t="s">
+      <c r="M16" s="22"/>
+      <c r="N16" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -7301,28 +6671,28 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:26">
       <c r="A17" s="1"/>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="14" t="s">
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M17" s="14"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -7335,20 +6705,20 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:26">
       <c r="A18" s="1"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -7363,22 +6733,22 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:26">
       <c r="A19" s="1"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -7391,22 +6761,22 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:26">
       <c r="A20" s="1"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -7419,20 +6789,2022 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:26">
       <c r="A21" s="1"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" s="1"/>
+      <c r="B22" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" s="1"/>
+      <c r="B23" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" s="1"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25" s="1"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26" s="1"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" s="1"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31" s="1"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32" s="1"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+    </row>
+    <row r="33" spans="1:26">
+      <c r="A33" s="1"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34" s="1"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+    </row>
+    <row r="38" spans="1:26">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="A39" s="1"/>
+      <c r="B39" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+    </row>
+    <row r="42" spans="1:26">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+    </row>
+    <row r="43" spans="1:26">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+    </row>
+    <row r="44" spans="1:26">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+    </row>
+    <row r="45" spans="1:26">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+    </row>
+    <row r="46" spans="1:26">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+    </row>
+    <row r="47" spans="1:26">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+    </row>
+    <row r="48" spans="1:26">
+      <c r="B48" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+    </row>
+    <row r="50" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A50" s="1"/>
+      <c r="B50" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+    </row>
+    <row r="51" spans="1:26">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+    </row>
+    <row r="52" spans="1:26">
+      <c r="A52" s="1"/>
+      <c r="B52" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+    </row>
+    <row r="53" spans="1:26">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+    </row>
+    <row r="54" spans="1:26">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
+    </row>
+    <row r="55" spans="1:26">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+    </row>
+    <row r="56" spans="1:26">
+      <c r="A56" s="1"/>
+      <c r="B56" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="S56" s="22"/>
+      <c r="T56" s="22"/>
+      <c r="U56" s="22"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
+    </row>
+    <row r="57" spans="1:26">
+      <c r="A57" s="1"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
+    </row>
+    <row r="58" spans="1:26">
+      <c r="A58" s="1"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
+    </row>
+    <row r="59" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+    </row>
+    <row r="60" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A60" s="1"/>
+      <c r="B60" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+    </row>
+    <row r="61" spans="1:26">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1"/>
+    </row>
+    <row r="62" spans="1:26">
+      <c r="A62" s="1"/>
+      <c r="B62" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M62" s="24"/>
+      <c r="N62" s="24"/>
+      <c r="O62" s="24"/>
+      <c r="P62" s="24"/>
+      <c r="Q62" s="24"/>
+      <c r="R62" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="S62" s="24"/>
+      <c r="T62" s="24"/>
+      <c r="U62" s="24"/>
+      <c r="V62" s="24"/>
+      <c r="W62" s="24"/>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1"/>
+      <c r="Z62" s="1"/>
+    </row>
+    <row r="63" spans="1:26">
+      <c r="A63" s="1"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="14"/>
+      <c r="P63" s="14"/>
+      <c r="Q63" s="14"/>
+      <c r="R63" s="14"/>
+      <c r="S63" s="14"/>
+      <c r="T63" s="14"/>
+      <c r="U63" s="14"/>
+      <c r="V63" s="14"/>
+      <c r="W63" s="14"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
+    </row>
+    <row r="64" spans="1:26">
+      <c r="A64" s="1"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="14"/>
+      <c r="P64" s="14"/>
+      <c r="Q64" s="14"/>
+      <c r="R64" s="14"/>
+      <c r="S64" s="14"/>
+      <c r="T64" s="14"/>
+      <c r="U64" s="14"/>
+      <c r="V64" s="14"/>
+      <c r="W64" s="14"/>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="1"/>
+    </row>
+    <row r="65" spans="1:26">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
+    </row>
+    <row r="66" spans="1:26">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="57">
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="F64:K64"/>
+    <mergeCell ref="L64:Q64"/>
+    <mergeCell ref="R64:W64"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="F62:K62"/>
+    <mergeCell ref="L62:Q62"/>
+    <mergeCell ref="R62:W62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="F63:K63"/>
+    <mergeCell ref="L63:Q63"/>
+    <mergeCell ref="R63:W63"/>
+    <mergeCell ref="N56:Q56"/>
+    <mergeCell ref="R56:U56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="F57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="F58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="F56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:Q3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:Q4"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:Q16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:26">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="1"/>
+      <c r="B2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="1"/>
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="1"/>
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="1"/>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="1"/>
+      <c r="B16" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="1"/>
+      <c r="B17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" s="1"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="1"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="1"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="1"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="1"/>
@@ -7447,7 +8819,7 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:26">
       <c r="A22" s="1"/>
       <c r="B22" s="6"/>
       <c r="C22" s="1"/>
@@ -7459,8 +8831,8 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -7475,7 +8847,7 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:33" ht="15.75" thickBot="1">
+    <row r="23" spans="1:26" ht="15.75" thickBot="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -7503,15 +8875,15 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:33" ht="15.75" thickBot="1">
+    <row r="24" spans="1:26" ht="15.75" thickBot="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -7530,35 +8902,10 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
-      <c r="Y24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33">
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -7583,42 +8930,17 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
-      <c r="Y25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AF25">
-        <v>0</v>
-      </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33">
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" s="1"/>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -7638,40 +8960,15 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
-      <c r="Y26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:33">
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" s="1"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="1"/>
@@ -7693,35 +8990,10 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
-      <c r="Y27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-      <c r="AF27">
-        <v>0</v>
-      </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33">
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" s="1"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -7748,40 +9020,15 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
-      <c r="Y28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <v>0</v>
-      </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
-      <c r="AF28">
-        <v>0</v>
-      </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:33">
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" s="1"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="1"/>
@@ -7803,40 +9050,15 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
-      <c r="Y29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-      <c r="AC29">
-        <v>0</v>
-      </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
-      <c r="AE29">
-        <v>0</v>
-      </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33">
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" s="1"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="1"/>
@@ -7858,40 +9080,15 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
-      <c r="Y30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA30">
-        <v>0</v>
-      </c>
-      <c r="AB30">
-        <v>0</v>
-      </c>
-      <c r="AC30">
-        <v>0</v>
-      </c>
-      <c r="AD30">
-        <v>0</v>
-      </c>
-      <c r="AE30">
-        <v>0</v>
-      </c>
-      <c r="AF30">
-        <v>0</v>
-      </c>
-      <c r="AG30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:33">
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31" s="1"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="1"/>
@@ -7913,40 +9110,15 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
-      <c r="Y31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA31">
-        <v>0</v>
-      </c>
-      <c r="AB31">
-        <v>0</v>
-      </c>
-      <c r="AC31">
-        <v>0</v>
-      </c>
-      <c r="AD31">
-        <v>0</v>
-      </c>
-      <c r="AE31">
-        <v>0</v>
-      </c>
-      <c r="AF31">
-        <v>0</v>
-      </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33">
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+    </row>
+    <row r="32" spans="1:26">
       <c r="A32" s="1"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="1"/>
@@ -7970,34 +9142,13 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
-      <c r="AA32">
-        <v>0</v>
-      </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
-      <c r="AD32">
-        <v>0</v>
-      </c>
-      <c r="AE32">
-        <v>0</v>
-      </c>
-      <c r="AF32">
-        <v>0</v>
-      </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:33">
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -8021,34 +9172,13 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
-      <c r="AA33">
-        <v>0</v>
-      </c>
-      <c r="AB33">
-        <v>0</v>
-      </c>
-      <c r="AC33">
-        <v>0</v>
-      </c>
-      <c r="AD33">
-        <v>0</v>
-      </c>
-      <c r="AE33">
-        <v>0</v>
-      </c>
-      <c r="AF33">
-        <v>0</v>
-      </c>
-      <c r="AG33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33">
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -8073,12 +9203,12 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:33">
+    <row r="35" spans="1:26">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -8103,12 +9233,12 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:33">
+    <row r="36" spans="1:26">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -8133,12 +9263,12 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:33">
+    <row r="37" spans="1:26">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -8163,12 +9293,12 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:33">
+    <row r="38" spans="1:26">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
@@ -8193,7 +9323,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:33">
+    <row r="39" spans="1:26">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -8220,58 +9350,58 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:33">
+    <row r="40" spans="1:26">
       <c r="A40" s="1"/>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16" t="s">
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16" t="s">
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16" t="s">
+      <c r="M40" s="22"/>
+      <c r="N40" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="16" t="s">
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="S40" s="16"/>
-      <c r="T40" s="16"/>
-      <c r="U40" s="16"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:33">
+    <row r="41" spans="1:26">
       <c r="A41" s="1"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -8286,20 +9416,20 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:33">
+    <row r="42" spans="1:26">
       <c r="A42" s="1"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -8314,7 +9444,7 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:33" ht="15.75" thickBot="1">
+    <row r="43" spans="1:26" ht="15.75" thickBot="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -8342,15 +9472,15 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:33" ht="15.75" thickBot="1">
+    <row r="44" spans="1:26" ht="15.75" thickBot="1">
       <c r="A44" s="1"/>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="12"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="21"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -8372,7 +9502,7 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:33">
+    <row r="45" spans="1:26">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -8400,94 +9530,94 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:33">
+    <row r="46" spans="1:26">
       <c r="A46" s="1"/>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13" t="s">
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13" t="s">
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="13" t="s">
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="S46" s="13"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="13"/>
-      <c r="V46" s="13"/>
-      <c r="W46" s="13"/>
+      <c r="S46" s="24"/>
+      <c r="T46" s="24"/>
+      <c r="U46" s="24"/>
+      <c r="V46" s="24"/>
+      <c r="W46" s="24"/>
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:33">
+    <row r="47" spans="1:26">
       <c r="A47" s="1"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="9"/>
-      <c r="U47" s="9"/>
-      <c r="V47" s="9"/>
-      <c r="W47" s="9"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="14"/>
+      <c r="V47" s="14"/>
+      <c r="W47" s="14"/>
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:33">
+    <row r="48" spans="1:26">
       <c r="A48" s="1"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
-      <c r="U48" s="9"/>
-      <c r="V48" s="9"/>
-      <c r="W48" s="9"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="14"/>
+      <c r="W48" s="14"/>
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
@@ -8550,6 +9680,47 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="F48:K48"/>
+    <mergeCell ref="L48:Q48"/>
+    <mergeCell ref="R48:W48"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="F46:K46"/>
+    <mergeCell ref="L46:Q46"/>
+    <mergeCell ref="R46:W46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="F47:K47"/>
+    <mergeCell ref="L47:Q47"/>
+    <mergeCell ref="R47:W47"/>
+    <mergeCell ref="N40:Q40"/>
+    <mergeCell ref="R40:U40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="F41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="F42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="L19:M19"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="F17:K17"/>
     <mergeCell ref="L17:M17"/>
@@ -8565,47 +9736,6 @@
     <mergeCell ref="F16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="F42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="N40:Q40"/>
-    <mergeCell ref="R40:U40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="F41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="F48:K48"/>
-    <mergeCell ref="L48:Q48"/>
-    <mergeCell ref="R48:W48"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="F46:K46"/>
-    <mergeCell ref="L46:Q46"/>
-    <mergeCell ref="R46:W46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="F47:K47"/>
-    <mergeCell ref="L47:Q47"/>
-    <mergeCell ref="R47:W47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
